--- a/ExcelFiles/PatientDomain.xlsx
+++ b/ExcelFiles/PatientDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CDF5A2-A9C2-4602-9CAB-16BDAF73F234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2464557-B6FA-4F78-B64E-E766898FBA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,25 @@
     <sheet name="patientIdentifier" sheetId="3" r:id="rId4"/>
     <sheet name="permanentAddress" sheetId="4" r:id="rId5"/>
     <sheet name="tempAddress" sheetId="8" r:id="rId6"/>
-    <sheet name="pipAddress" sheetId="9" r:id="rId7"/>
-    <sheet name="pip" sheetId="5" r:id="rId8"/>
+    <sheet name="pip" sheetId="5" r:id="rId7"/>
+    <sheet name="pipAddress" sheetId="26" r:id="rId8"/>
     <sheet name="addGP" sheetId="6" r:id="rId9"/>
     <sheet name="gpAddress" sheetId="10" r:id="rId10"/>
     <sheet name="AddReferral" sheetId="11" r:id="rId11"/>
     <sheet name="ConfirmExistingDetails" sheetId="12" r:id="rId12"/>
     <sheet name="ConfirmExistingDetailsTAdd" sheetId="13" r:id="rId13"/>
     <sheet name="SPaddPatient" sheetId="14" r:id="rId14"/>
-    <sheet name="SPeditPatient" sheetId="15" r:id="rId15"/>
-    <sheet name="SPpatientIdentifier" sheetId="16" r:id="rId16"/>
-    <sheet name="SPpermanentAddress" sheetId="17" r:id="rId17"/>
-    <sheet name="SPtempAddress" sheetId="18" r:id="rId18"/>
-    <sheet name="SPpip" sheetId="19" r:id="rId19"/>
-    <sheet name="SPaddGP" sheetId="20" r:id="rId20"/>
-    <sheet name="SPgpAddress" sheetId="21" r:id="rId21"/>
-    <sheet name="patDetails" sheetId="22" r:id="rId22"/>
-    <sheet name="patCauseOfDeath" sheetId="23" r:id="rId23"/>
-    <sheet name="patOtherCauseOfDeath" sheetId="24" r:id="rId24"/>
+    <sheet name="SPAddress" sheetId="25" r:id="rId15"/>
+    <sheet name="SPeditPatient" sheetId="15" r:id="rId16"/>
+    <sheet name="SPpatientIdentifier" sheetId="16" r:id="rId17"/>
+    <sheet name="SPpermanentAddress" sheetId="17" r:id="rId18"/>
+    <sheet name="SPtempAddress" sheetId="18" r:id="rId19"/>
+    <sheet name="SPpip" sheetId="19" r:id="rId20"/>
+    <sheet name="SPaddGP" sheetId="20" r:id="rId21"/>
+    <sheet name="SPgpAddress" sheetId="21" r:id="rId22"/>
+    <sheet name="patDetails" sheetId="22" r:id="rId23"/>
+    <sheet name="patCauseOfDeath" sheetId="23" r:id="rId24"/>
+    <sheet name="patOtherCauseOfDeath" sheetId="24" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="258">
   <si>
     <t>prerelease.auto</t>
   </si>
@@ -598,9 +599,6 @@
     <t>05/03/2024</t>
   </si>
   <si>
-    <t>06/03/2024</t>
-  </si>
-  <si>
     <t>12:00</t>
   </si>
   <si>
@@ -769,22 +767,73 @@
     <t>ParkInfinia</t>
   </si>
   <si>
-    <t>SBIE</t>
-  </si>
-  <si>
-    <t>15/09/2023</t>
-  </si>
-  <si>
-    <t>hosp0524Id005</t>
-  </si>
-  <si>
-    <t>AutoHospSP102</t>
-  </si>
-  <si>
-    <t>ICICIA</t>
-  </si>
-  <si>
-    <t>15/04/2024</t>
+    <t>Added This patient for Testing</t>
+  </si>
+  <si>
+    <t>Added Permanent Address Notes</t>
+  </si>
+  <si>
+    <t>Added temp address for testing</t>
+  </si>
+  <si>
+    <t>24/04/2023</t>
+  </si>
+  <si>
+    <t>NHS002</t>
+  </si>
+  <si>
+    <t>AutoHospSP115</t>
+  </si>
+  <si>
+    <t>15 number</t>
+  </si>
+  <si>
+    <t>Hadapsar</t>
+  </si>
+  <si>
+    <t>4110 01</t>
+  </si>
+  <si>
+    <t>IDF003</t>
+  </si>
+  <si>
+    <t>ICICIT</t>
+  </si>
+  <si>
+    <t>Flat no 101</t>
+  </si>
+  <si>
+    <t>Sai Capital</t>
+  </si>
+  <si>
+    <t>4110 28</t>
+  </si>
+  <si>
+    <t>pip_next_of_kin_Yes</t>
+  </si>
+  <si>
+    <t>pip_receive_patient_letter_no</t>
+  </si>
+  <si>
+    <t>pip_receive_pat_appt_letter_no</t>
+  </si>
+  <si>
+    <t>Aadhar Card</t>
+  </si>
+  <si>
+    <t>989798979897</t>
+  </si>
+  <si>
+    <t>26/09/2023</t>
+  </si>
+  <si>
+    <t>A07.2</t>
+  </si>
+  <si>
+    <t>SummaryV</t>
+  </si>
+  <si>
+    <t>hosp0524Id033</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1211,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,9 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B8200B-D516-43D7-89EF-613AA5124170}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1265,10 +1312,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1277,7 +1324,7 @@
         <v>126</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1286,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I2">
         <v>11255255</v>
@@ -1298,7 +1345,7 @@
         <v>9890098900</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1313,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EF2D31-C637-4166-A38E-6AD890012D6C}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,40 +1454,40 @@
         <v>178</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="S2" t="s">
         <v>136</v>
@@ -1474,10 +1521,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
         <v>189</v>
-      </c>
-      <c r="B1" t="s">
-        <v>190</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -1503,13 +1550,13 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2">
         <v>9800652518</v>
@@ -1521,10 +1568,10 @@
         <v>134</v>
       </c>
       <c r="G2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" t="s">
         <v>193</v>
-      </c>
-      <c r="H2" t="s">
-        <v>194</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>137</v>
@@ -1583,22 +1630,22 @@
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>33</v>
@@ -1619,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C932993C-BEC1-4EED-970C-E88B561CBB99}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,13 +1870,19 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>239</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>114</v>
@@ -1838,7 +1891,7 @@
         <v>115</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>116</v>
@@ -1916,6 +1969,63 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD9C16E-4CB9-459A-A842-7838E1E00E37}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A041BE-229A-4486-A0E4-B7268330F3E6}">
   <dimension ref="A1:AT2"/>
   <sheetViews>
@@ -2072,14 +2182,14 @@
     <row r="2" spans="1:46" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="str">
         <f>SPaddPatient!B2</f>
-        <v>AutoHospSP102</v>
+        <v>AutoHospSP115</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>SPaddPatient!F2</f>
-        <v>ICICIA</v>
+        <v>ICICIT</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>SPaddPatient!G2</f>
@@ -2091,7 +2201,7 @@
       </c>
       <c r="I2" s="7" t="str">
         <f>SPaddPatient!I2</f>
-        <v>15/04/2024</v>
+        <v>24/04/2023</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>116</v>
@@ -2165,7 +2275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35BFEA3-A953-48D6-ADDD-B3DD146857BD}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2222,7 +2332,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>SPaddPatient!F2</f>
-        <v>ICICIA</v>
+        <v>ICICIT</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>SPaddPatient!G2</f>
@@ -2234,13 +2344,13 @@
       </c>
       <c r="D2" s="7" t="str">
         <f>SPaddPatient!I2</f>
-        <v>15/04/2024</v>
+        <v>24/04/2023</v>
       </c>
       <c r="E2" s="6">
         <v>7794778477</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>33</v>
@@ -2254,7 +2364,7 @@
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(A2,".",B2,"@Gmail.com")</f>
-        <v>ICICIA.Jones@Gmail.com</v>
+        <v>ICICIT.Jones@Gmail.com</v>
       </c>
     </row>
   </sheetData>
@@ -2262,7 +2372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E209E8-73AC-4077-9E37-04846E020663}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -2337,19 +2447,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -2391,7 +2501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAFF8DA-0CD0-4402-8F90-F1E813EC7639}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -2530,185 +2640,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3C1675-3144-48E1-BA13-E5B1029D6465}">
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" t="s">
-        <v>140</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>117</v>
-      </c>
-      <c r="W2">
-        <v>6882</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF0A85D-BF9E-4195-B308-46228FB58B18}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
     <col min="4" max="8" width="15" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -2872,22 +2822,22 @@
     </row>
     <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>115</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>116</v>
@@ -2899,7 +2849,7 @@
         <v>118</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>119</v>
@@ -2967,6 +2917,166 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3C1675-3144-48E1-BA13-E5B1029D6465}">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>117</v>
+      </c>
+      <c r="W2">
+        <v>6882</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FB6C6E-BBB1-482D-BAEA-81327AF1E072}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -3037,7 +3147,7 @@
         <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3045,7 +3155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6542709-E1AF-458E-84CC-6B34BF027848}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -3100,7 +3210,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>156</v>
@@ -3118,19 +3228,19 @@
         <v>33</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +3251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA211E2D-D144-4C91-84C7-409E62859796}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3165,16 +3275,16 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
         <v>210</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>211</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>212</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3186,23 +3296,23 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>addPatient!B2</f>
-        <v>hosp0524Id005</v>
+        <v>hosp0524Id033</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
         <v>214</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>215</v>
-      </c>
-      <c r="E2" t="s">
-        <v>216</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>addPatient!F2</f>
-        <v>SBIE</v>
+        <v>SummaryV</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>addPatient!G2</f>
@@ -3214,7 +3324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4463327-3996-4901-8014-D52E2C3B0192}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3225,28 +3335,29 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
         <v>217</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>218</v>
-      </c>
-      <c r="C1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
         <v>220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3254,17 +3365,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37A3AC3-C90B-45D1-8F1F-12412A450A60}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
@@ -3272,30 +3383,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
         <v>217</v>
       </c>
-      <c r="B1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63663BE-0933-440E-905E-1D893EA554E2}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -3480,7 +3591,7 @@
       </c>
       <c r="F2" s="6" t="str">
         <f>addPatient!F2</f>
-        <v>SBIE</v>
+        <v>SummaryV</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>addPatient!G2</f>
@@ -3492,7 +3603,7 @@
       </c>
       <c r="I2" s="7" t="str">
         <f>addPatient!I2</f>
-        <v>15/09/2023</v>
+        <v>26/09/2023</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>116</v>
@@ -3574,7 +3685,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3736,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>addPatient!F2</f>
-        <v>SBIE</v>
+        <v>SummaryV</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>addPatient!G2</f>
@@ -3637,7 +3748,7 @@
       </c>
       <c r="D2" s="7" t="str">
         <f>addPatient!I2</f>
-        <v>15/09/2023</v>
+        <v>26/09/2023</v>
       </c>
       <c r="E2" s="6">
         <v>8962845424</v>
@@ -3656,7 +3767,7 @@
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(A2,".",B2,"@Gmail.com")</f>
-        <v>SBIE.Riomedtest@Gmail.com</v>
+        <v>SummaryV.Riomedtest@Gmail.com</v>
       </c>
     </row>
   </sheetData>
@@ -3668,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4F611B-C6D9-4700-BED5-C8001268DCF7}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,7 +3794,7 @@
     <col min="10" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="39.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3772,7 +3883,7 @@
         <v>542152</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3782,10 +3893,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243234AE-1F26-46D3-86C7-4473CEDF38FD}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,14 +3910,12 @@
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3841,22 +3950,16 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3892,22 +3995,16 @@
         <v>666999</v>
       </c>
       <c r="L2" s="3">
-        <v>411001</v>
-      </c>
-      <c r="M2" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="M2" s="3">
+        <v>54215</v>
       </c>
       <c r="N2" s="3">
         <v>91</v>
       </c>
-      <c r="O2" s="3">
-        <v>54215</v>
-      </c>
-      <c r="P2" s="3">
-        <v>91</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>112</v>
+      <c r="O2" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3916,84 +4013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E70DD0-5891-41AC-AAED-B79B7CC5843D}">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A351DAA9-84F9-4C02-808E-1D98E79EAD60}">
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A351DAA9-84F9-4C02-808E-1D98E79EAD60}">
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,22 +4025,26 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="4" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="11" width="27.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="22.140625" customWidth="1"/>
+    <col min="24" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="35.7109375" customWidth="1"/>
+    <col min="31" max="32" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -4030,85 +4058,100 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>81</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>82</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>84</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>85</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>87</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>88</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>143</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>145</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>91</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>93</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>94</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE1" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG1" t="s">
         <v>96</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>97</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -4121,44 +4164,180 @@
       <c r="D2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="U2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z2">
+        <v>6882</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
         <v>132</v>
       </c>
-      <c r="F2">
+      <c r="AE2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" t="s">
-        <v>140</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>117</v>
-      </c>
-      <c r="W2">
-        <v>6882</v>
-      </c>
       <c r="AF2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH2" t="s">
         <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8030DDD-DC89-4311-A967-D98606D66625}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6">
+        <v>9854148754</v>
+      </c>
+      <c r="H2" s="6">
+        <v>9890098900</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="6">
+        <v>985421547</v>
+      </c>
+      <c r="K2" s="6">
+        <v>22547545</v>
       </c>
     </row>
   </sheetData>
@@ -4231,10 +4410,10 @@
         <v>150</v>
       </c>
       <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
         <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>231</v>
       </c>
       <c r="E2" t="s">
         <v>153</v>
@@ -4246,7 +4425,7 @@
         <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
